--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\NewGameProject\Assets\Dev\Data\Dialogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Github\NewGameProject\Assets\Dev\Data\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F3FA6-F96F-41F4-A9B1-6B2AC404AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12250"/>
+    <workbookView xWindow="8805" yWindow="5760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_script" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visit_1_exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채플린: ENTER TEST 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,24 +128,51 @@
   <si>
     <t>채플린: EXIT TEST 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_0_enter</t>
+  </si>
+  <si>
+    <t>visit_0_exit_perfect</t>
+  </si>
+  <si>
+    <t>visit_1_exit_perfect</t>
+  </si>
+  <si>
+    <t>visit_0_exit_good</t>
+  </si>
+  <si>
+    <t>visit_0_exit_good_0</t>
+  </si>
+  <si>
+    <t>visit_0_exit_good_1</t>
+  </si>
+  <si>
+    <t>visit_0_exit_bad</t>
+  </si>
+  <si>
+    <t>visit_0_exit_bad_0</t>
+  </si>
+  <si>
+    <t>visit_0_exit_bad_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -459,21 +483,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="2" max="3" width="13.9140625" customWidth="1"/>
-    <col min="4" max="4" width="132.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="132.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,12 +512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -501,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -515,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -529,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -543,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -557,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -571,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -585,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -599,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -613,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -627,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -641,12 +666,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -655,12 +680,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -669,12 +694,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -683,12 +708,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -697,12 +722,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -711,12 +736,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -725,88 +750,144 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Github\NewGameProject\Assets\Dev\Data\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F3FA6-F96F-41F4-A9B1-6B2AC404AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05010C4A-9EDE-42CA-8875-39FBCD68BE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="5760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_script" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>visit_0_exit_bad_1</t>
+  </si>
+  <si>
+    <t>pose_key</t>
+  </si>
+  <si>
+    <t>touch_mustache</t>
   </si>
 </sst>
 </file>
@@ -484,21 +490,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="132.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="132.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,387 +512,399 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Github\NewGameProject\Assets\Dev\Data\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05010C4A-9EDE-42CA-8875-39FBCD68BE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA6D57-D5C4-49CB-83E7-0A541A0E1303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>touch_mustache</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>smile</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,6 +837,9 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -858,6 +867,9 @@
       </c>
       <c r="B25" t="s">
         <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
       </c>
       <c r="D25">
         <v>0</v>

--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Github\NewGameProject\Assets\Dev\Data\Dialogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NewGameProject\Assets\Dev\Data\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA6D57-D5C4-49CB-83E7-0A541A0E1303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="_script" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,14 +72,6 @@
     <t>주인공: 맞는 칵테일 하나 추천해드릴게요.</t>
   </si>
   <si>
-    <t>visit_0_enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_0_exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주인공: 우리 가게 특제 술입니다. 한 번 맛보시죠.</t>
   </si>
   <si>
@@ -102,10 +93,6 @@
     <t>채플린: 이만 일어나봐야겠어. 좋은 시간이었네.</t>
   </si>
   <si>
-    <t>visit_1_enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채플린: ENTER TEST 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,27 +117,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visit_0_enter</t>
-  </si>
-  <si>
-    <t>visit_0_exit_perfect</t>
-  </si>
-  <si>
-    <t>visit_1_exit_perfect</t>
-  </si>
-  <si>
-    <t>visit_0_exit_good</t>
-  </si>
-  <si>
     <t>visit_0_exit_good_0</t>
   </si>
   <si>
     <t>visit_0_exit_good_1</t>
   </si>
   <si>
-    <t>visit_0_exit_bad</t>
-  </si>
-  <si>
     <t>visit_0_exit_bad_0</t>
   </si>
   <si>
@@ -167,24 +139,73 @@
   </si>
   <si>
     <t>smile</t>
+  </si>
+  <si>
+    <t>visit_daughter_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_daughter_exit_perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_man_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_man_exit_perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_exit_perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_sommelier_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_sommelier_exit_perfect</t>
+  </si>
+  <si>
+    <t>visit_sommelier_exit_good</t>
+  </si>
+  <si>
+    <t>visit_sommelier_exit_bad</t>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -495,22 +516,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="132.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="3" width="26.58203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="132.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -527,15 +548,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -544,12 +565,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -558,12 +579,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -572,12 +593,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -586,12 +607,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -600,15 +621,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -617,12 +638,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -631,12 +652,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -645,12 +666,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -659,12 +680,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -673,251 +694,372 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
